--- a/public/users.xlsx
+++ b/public/users.xlsx
@@ -376,45 +376,50 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="one"/>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
-        <v>查康</v>
-      </c>
-      <c r="B1" t="str">
-        <v>18701676735</v>
-      </c>
-      <c r="C1" t="str">
-        <v>铂金会员</v>
-      </c>
-      <c r="D1" t="str">
-        <v>2018-09-30</v>
-      </c>
-      <c r="E1" t="str">
-        <v>2018-03-30</v>
+        <v>姓名,手机号,会员等级,开始时间,结束时间,做题数量</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
+        <v>查康</v>
+      </c>
+      <c r="B2" t="str">
+        <v>18701676735</v>
+      </c>
+      <c r="C2" t="str">
+        <v>铂金会员</v>
+      </c>
+      <c r="D2" t="str">
+        <v>2018-09-30</v>
+      </c>
+      <c r="E2" t="str">
+        <v>2018-03-30</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="str">
         <v>zk</v>
       </c>
-      <c r="B2" t="str">
+      <c r="B3" t="str">
         <v>13269882679</v>
       </c>
-      <c r="C2" t="str">
+      <c r="C3" t="str">
+        <v>过期会员</v>
+      </c>
+      <c r="D3" t="str">
         <v/>
       </c>
-      <c r="D2" t="str">
+      <c r="E3" t="str">
         <v/>
       </c>
-      <c r="E2" t="str">
-        <v/>
-      </c>
-      <c r="F2">
+      <c r="F3">
         <v>157</v>
       </c>
     </row>
